--- a/01_Initial_Glider_Design/C_results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/C_results/nausicaa_rollin_timeseries.xlsx
@@ -486,2619 +486,2619 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7900364111432401</v>
+        <v>-0.6933178508921466</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.26575202016994</v>
+        <v>-39.72418671720052</v>
       </c>
       <c r="F2" t="n">
-        <v>1.483873645581751e-24</v>
+        <v>1.991332652452596e-24</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.000948920971223e-39</v>
+        <v>3.978150841194705e-39</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.705979504263283e-23</v>
+        <v>3.19192215575172e-22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008493420848424294</v>
+        <v>0.01016816387783703</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02620928104491207</v>
+        <v>0.03240858714472258</v>
       </c>
       <c r="C3" t="n">
-        <v>2.47354645396444</v>
+        <v>2.473070753894561</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7900364111432401</v>
+        <v>-0.6933178508921466</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.26575202016994</v>
+        <v>-39.72418671720052</v>
       </c>
       <c r="F3" t="n">
-        <v>2.371993377117132e-24</v>
+        <v>3.246009283836522e-24</v>
       </c>
       <c r="G3" t="n">
-        <v>7.221064552119552e-25</v>
+        <v>1.160136215220149e-24</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.540668862804519e-07</v>
+        <v>-5.876312902972406e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01698684169684859</v>
+        <v>0.02033632775567407</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05241856208982414</v>
+        <v>0.06481717428944517</v>
       </c>
       <c r="C4" t="n">
-        <v>2.447092907928881</v>
+        <v>2.446141507789122</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7900364111432401</v>
+        <v>-0.6933178508921466</v>
       </c>
       <c r="E4" t="n">
-        <v>-45.26575202016994</v>
+        <v>-39.72418671720052</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.280928548162418e-09</v>
+        <v>-6.127574761099191e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>1.876405468781966e-24</v>
+        <v>3.051238099811734e-24</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.49038075223767e-08</v>
+        <v>-1.112235569859676e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02548026254527288</v>
+        <v>0.0305044916335111</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07862784313473621</v>
+        <v>0.09722576143416775</v>
       </c>
       <c r="C5" t="n">
-        <v>2.420639361893322</v>
+        <v>2.419212261683682</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7900364111432401</v>
+        <v>-0.6933178508921466</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.26575202016994</v>
+        <v>-39.72418671720052</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.275556794195937e-09</v>
+        <v>-6.1153542819499e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.029807876855152e-09</v>
+        <v>-3.569881400507104e-09</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.484874712783264e-08</v>
+        <v>-1.106959746617448e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03397368339369718</v>
+        <v>0.04067265551134813</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1048371241796483</v>
+        <v>0.1296343485788903</v>
       </c>
       <c r="C6" t="n">
-        <v>2.394185815857762</v>
+        <v>2.392283015578243</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7900364111445767</v>
+        <v>-0.6933178508936464</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.26575202024652</v>
+        <v>-39.72418671728645</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.268794720296999e-09</v>
+        <v>-6.099969789301497e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.057001659376911e-09</v>
+        <v>-7.132643236925398e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.478552748159419e-08</v>
+        <v>-1.101032114539246e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04246710424212147</v>
+        <v>0.05084081938918517</v>
       </c>
       <c r="B7" t="n">
-        <v>0.131046405224525</v>
+        <v>0.1620429357235725</v>
       </c>
       <c r="C7" t="n">
-        <v>2.367732269822167</v>
+        <v>2.365353769472756</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.790036411147249</v>
+        <v>-0.6933178508966429</v>
       </c>
       <c r="E7" t="n">
-        <v>-45.26575202039963</v>
+        <v>-39.72418671745814</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.260609895121544e-09</v>
+        <v>-6.081346780867611e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.20809047664175e-08</v>
+        <v>-1.068644217753206e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.471383626493894e-08</v>
+        <v>-1.094422836796821e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05096052509054576</v>
+        <v>0.0610089832670222</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157255686269331</v>
+        <v>0.194451522868174</v>
       </c>
       <c r="C8" t="n">
-        <v>2.341278723786503</v>
+        <v>2.338424523367171</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.790036411151256</v>
+        <v>-0.6933178509011325</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.26575202062921</v>
+        <v>-39.72418671771537</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.250962573894137e-09</v>
+        <v>-6.059393891715964e-09</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.61008248345379e-08</v>
+        <v>-1.422939148610295e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.46333119266509e-08</v>
+        <v>-1.087097887070203e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05945394593897006</v>
+        <v>0.07117714714485923</v>
       </c>
       <c r="B9" t="n">
-        <v>0.183464967314031</v>
+        <v>0.2268601100126546</v>
       </c>
       <c r="C9" t="n">
-        <v>2.314825177750732</v>
+        <v>2.31149527726144</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7900364111565963</v>
+        <v>-0.6933178509071106</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.26575202093519</v>
+        <v>-39.72418671805789</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.23980518850443e-09</v>
+        <v>-6.034001750937847e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.011605015901974e-08</v>
+        <v>-1.775955119785531e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.454353924059084e-08</v>
+        <v>-1.079018594945056e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06794736678739435</v>
+        <v>0.08134531102269627</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2096742483585898</v>
+        <v>0.2592686971569742</v>
       </c>
       <c r="C10" t="n">
-        <v>2.288371631714822</v>
+        <v>2.284566031155517</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7900364111632684</v>
+        <v>-0.6933178509145717</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.26575202131747</v>
+        <v>-39.72418671848538</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.227081747774649e-09</v>
+        <v>-6.005041582959946e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.412584588674142e-08</v>
+        <v>-2.127491762929418e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.444404369470792e-08</v>
+        <v>-1.070141111649856e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.07644078763581864</v>
+        <v>0.0915134749005333</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2358835294029721</v>
+        <v>0.2916772843010929</v>
       </c>
       <c r="C11" t="n">
-        <v>2.261918085678738</v>
+        <v>2.257636785049351</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7900364111712704</v>
+        <v>-0.6933178509235096</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.26575202177596</v>
+        <v>-39.72418671899749</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.2127271113271e-09</v>
+        <v>-5.972363519274469e-09</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.812944991720143e-08</v>
+        <v>-2.477341207319302e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.43342848959965e-08</v>
+        <v>-1.06041578178383e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.08493420848424293</v>
+        <v>0.1016816387783703</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2620928104471426</v>
+        <v>0.3240858714449709</v>
       </c>
       <c r="C12" t="n">
-        <v>2.235464539642444</v>
+        <v>2.230707538942896</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7900364111806003</v>
+        <v>-0.6933178509339173</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.26575202231052</v>
+        <v>-39.7241867195938</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.196666121082456e-09</v>
+        <v>-5.935794577946541e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.212606845017898e-08</v>
+        <v>-2.825286851000037e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.421364878414533e-08</v>
+        <v>-1.049786403450135e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.09342762933266724</v>
+        <v>0.1118498026562074</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2883020914910664</v>
+        <v>0.3564944585885686</v>
       </c>
       <c r="C13" t="n">
-        <v>2.209010993605904</v>
+        <v>2.203778292836103</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7900364111912559</v>
+        <v>-0.6933178509457868</v>
       </c>
       <c r="E13" t="n">
-        <v>-45.26575202292104</v>
+        <v>-39.72418672027388</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.178812567943753e-09</v>
+        <v>-5.89513625807631e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.611487111074975e-08</v>
+        <v>-3.171102014212194e-08</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.408143843374398e-08</v>
+        <v>-1.038189355147745e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1019210501810915</v>
+        <v>0.1220179665340444</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3145113725347082</v>
+        <v>0.3889030457318467</v>
       </c>
       <c r="C14" t="n">
-        <v>2.182557447569086</v>
+        <v>2.176849046728925</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7900364112032344</v>
+        <v>-0.6933178509591092</v>
       </c>
       <c r="E14" t="n">
-        <v>-45.26575202360736</v>
+        <v>-39.72418672103719</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.159067965945929e-09</v>
+        <v>-5.8501616839244e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.009498557145147e-08</v>
+        <v>-3.514548452675334e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.39368631732602e-08</v>
+        <v>-1.02555256264711e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1104144710295158</v>
+        <v>0.1321861304118814</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3407206535780333</v>
+        <v>0.421311632874766</v>
       </c>
       <c r="C15" t="n">
-        <v>2.156103901531954</v>
+        <v>2.149919800621316</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7900364112165331</v>
+        <v>-0.6933178509738745</v>
       </c>
       <c r="E15" t="n">
-        <v>-45.26575202436932</v>
+        <v>-39.72418672188319</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.13732009963927e-09</v>
+        <v>-5.800612217977787e-09</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.406549157790541e-08</v>
+        <v>-3.855374704490082e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.377902568372547e-08</v>
+        <v>-1.011794272570752e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1189078918779401</v>
+        <v>0.1423542942897185</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3669299346210065</v>
+        <v>0.4537202200172877</v>
       </c>
       <c r="C16" t="n">
-        <v>2.129650355494473</v>
+        <v>2.122990554513228</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7900364112311488</v>
+        <v>-0.6933178509900717</v>
       </c>
       <c r="E16" t="n">
-        <v>-45.26575202520674</v>
+        <v>-39.72418672281121</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.113441302357933e-09</v>
+        <v>-5.746193442971132e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.80254142675409e-08</v>
+        <v>-4.193314239719814e-08</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.360690665715614e-08</v>
+        <v>-9.968215910951535e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1274013127263644</v>
+        <v>0.1525224581675555</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3931392156635931</v>
+        <v>0.4861288071593733</v>
       </c>
       <c r="C17" t="n">
-        <v>2.10319680945661</v>
+        <v>2.096061308404616</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7900364112470778</v>
+        <v>-0.6933178510076885</v>
       </c>
       <c r="E17" t="n">
-        <v>-45.2657520261194</v>
+        <v>-39.72418672382058</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.087286412821733e-09</v>
+        <v>-5.686570388640887e-09</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.197371665046171e-08</v>
+        <v>-4.528083375887784e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.34193464889844e-08</v>
+        <v>-9.805287355124323e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1358947335747887</v>
+        <v>0.1626906220453925</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4193484967057583</v>
+        <v>0.5185373943009844</v>
       </c>
       <c r="C18" t="n">
-        <v>2.076743263418328</v>
+        <v>2.069132062295433</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7900364112643163</v>
+        <v>-0.6933178510267117</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.2657520271071</v>
+        <v>-39.72418672491053</v>
       </c>
       <c r="F18" t="n">
-        <v>-8.058690344613025e-09</v>
+        <v>-5.621361848253344e-09</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.590929109591899e-08</v>
+        <v>-4.859378915388339e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.321502334223346e-08</v>
+        <v>-9.627949325612365e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.144388154423213</v>
+        <v>0.1728587859232296</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4455577777474675</v>
+        <v>0.5509459814420832</v>
       </c>
       <c r="C19" t="n">
-        <v>2.050289717379595</v>
+        <v>2.042202816185632</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7900364112828603</v>
+        <v>-0.6933178510471268</v>
       </c>
       <c r="E19" t="n">
-        <v>-45.26575202816959</v>
+        <v>-39.72418672608023</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.027465186594889e-09</v>
+        <v>-5.550133590670032e-09</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.98309496360016e-08</v>
+        <v>-5.186875451783105e-08</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.299242674423318e-08</v>
+        <v>-9.434818793897883e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1528815752716373</v>
+        <v>0.1830269498010666</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4717670587886861</v>
+        <v>0.5833545685826323</v>
       </c>
       <c r="C20" t="n">
-        <v>2.023836171340376</v>
+        <v>2.015273570075171</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.790036411302705</v>
+        <v>-0.6933178510689177</v>
       </c>
       <c r="E20" t="n">
-        <v>-45.2657520293066</v>
+        <v>-39.72418672732876</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.993396731163993e-09</v>
+        <v>-5.472390223130612e-09</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.37374128582832e-08</v>
+        <v>-5.510222280636944e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.274982564514552e-08</v>
+        <v>-9.224306592747263e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1613749961200616</v>
+        <v>0.1931951136789036</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4979763398293798</v>
+        <v>0.6157631557225947</v>
       </c>
       <c r="C21" t="n">
-        <v>1.997382625300637</v>
+        <v>1.988344323964003</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7900364113238454</v>
+        <v>-0.6933178510920672</v>
       </c>
       <c r="E21" t="n">
-        <v>-45.26575203051786</v>
+        <v>-39.72418672865513</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.95624029979894e-09</v>
+        <v>-5.387565394270866e-09</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.762729710898759e-08</v>
+        <v>-5.829039836285442e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.248522956214581e-08</v>
+        <v>-8.994579727264821e-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1698684169684859</v>
+        <v>0.2033632775567407</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5241856208695141</v>
+        <v>0.6481717428619336</v>
       </c>
       <c r="C22" t="n">
-        <v>1.970929079260344</v>
+        <v>1.961415077852085</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7900364113462759</v>
+        <v>-0.6933178511165561</v>
       </c>
       <c r="E22" t="n">
-        <v>-45.26575203180303</v>
+        <v>-39.72418673005824</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.915715699528944e-09</v>
+        <v>-5.295009940950476e-09</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.149909966471292e-08</v>
+        <v>-6.142915557837194e-08</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.219634102679868e-08</v>
+        <v>-8.743515024569149e-08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1783618378169102</v>
+        <v>0.2135314414345777</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5503949019090553</v>
+        <v>0.6805803300006129</v>
       </c>
       <c r="C23" t="n">
-        <v>1.944475533219463</v>
+        <v>1.934485831739373</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7900364113699906</v>
+        <v>-0.6933178511423636</v>
       </c>
       <c r="E23" t="n">
-        <v>-45.26575203316178</v>
+        <v>-39.7241867315369</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.871501096741667e-09</v>
+        <v>-5.193977469003022e-09</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.535118144978473e-08</v>
+        <v>-6.451399064618731e-08</v>
       </c>
       <c r="H23" t="n">
-        <v>-4.188049700745063e-08</v>
+        <v>-8.468641737183146e-08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1868552586653345</v>
+        <v>0.2236996053124147</v>
       </c>
       <c r="B24" t="n">
-        <v>0.576604182947969</v>
+        <v>0.7129889171385974</v>
       </c>
       <c r="C24" t="n">
-        <v>1.91802198717796</v>
+        <v>1.907556585625825</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7900364113949829</v>
+        <v>-0.693317851169467</v>
       </c>
       <c r="E24" t="n">
-        <v>-45.26575203459374</v>
+        <v>-39.7241867330898</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.823225532000072e-09</v>
+        <v>-5.083606706857903e-09</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.918174677237941e-08</v>
+        <v>-6.753996491564208e-08</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.15345962382284e-08</v>
+        <v>-8.167069937551367e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1953486795137588</v>
+        <v>0.2338677691902518</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6028134639862216</v>
+        <v>0.7453975042758519</v>
       </c>
       <c r="C25" t="n">
-        <v>1.891568441135802</v>
+        <v>1.880627339511398</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7900364114212459</v>
+        <v>-0.6933178511978417</v>
       </c>
       <c r="E25" t="n">
-        <v>-45.2657520360985</v>
+        <v>-39.72418673471556</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.770459715331738e-09</v>
+        <v>-4.962899767640701e-09</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.298881941807854e-08</v>
+        <v>-7.050163796539689e-08</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.115500837162113e-08</v>
+        <v>-7.835400467888861e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2038421003621831</v>
+        <v>0.2440359330680888</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6290227450237794</v>
+        <v>0.7778060914123425</v>
       </c>
       <c r="C26" t="n">
-        <v>1.865114895092956</v>
+        <v>1.853698093396052</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7900364114487716</v>
+        <v>-0.6933178512274607</v>
       </c>
       <c r="E26" t="n">
-        <v>-45.2657520376756</v>
+        <v>-39.7241867364126</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.712704627310638e-09</v>
+        <v>-4.830695178998816e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.677021426407127e-08</v>
+        <v>-7.339298801232856e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.073745946499416e-08</v>
+        <v>-7.469610711211266e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2123355212106074</v>
+        <v>0.2542040969459258</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6552320260606092</v>
+        <v>0.8102146785480352</v>
       </c>
       <c r="C27" t="n">
-        <v>1.838661349049389</v>
+        <v>1.826768847279746</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7900364114775514</v>
+        <v>-0.6933178512582945</v>
       </c>
       <c r="E27" t="n">
-        <v>-45.26575203932457</v>
+        <v>-39.72418673817925</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.649377294845143e-09</v>
+        <v>-4.685634160156253e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>-9.052350334622099e-08</v>
+        <v>-7.620731660779614e-08</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.027688633736496e-08</v>
+        <v>-7.064908331239731e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2208289420590316</v>
+        <v>0.2643722608237629</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6814413070966775</v>
+        <v>0.8426232656828977</v>
       </c>
       <c r="C28" t="n">
-        <v>1.812207803005067</v>
+        <v>1.79983960116244</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7900364115075762</v>
+        <v>-0.6933178512903105</v>
       </c>
       <c r="E28" t="n">
-        <v>-45.26575204104486</v>
+        <v>-39.72418674001363</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.579792893764998e-09</v>
+        <v>-4.526118097718985e-09</v>
       </c>
       <c r="G28" t="n">
-        <v>-9.424597500410369e-08</v>
+        <v>-7.893713368715916e-08</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.976724952683514e-08</v>
+        <v>-6.61554209403762e-08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2293223629074559</v>
+        <v>0.2745404247015999</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7076505881319516</v>
+        <v>0.8750318528168981</v>
       </c>
       <c r="C29" t="n">
-        <v>1.785754256959958</v>
+        <v>1.772910355044097</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7900364115388356</v>
+        <v>-0.6933178513234735</v>
       </c>
       <c r="E29" t="n">
-        <v>-45.26575204283589</v>
+        <v>-39.72418674191373</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.503142025998277e-09</v>
+        <v>-4.350254428296187e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>-9.793458431650251e-08</v>
+        <v>-8.157401784500292e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.920129053255631e-08</v>
+        <v>-6.114554472468864e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2378157837558803</v>
+        <v>0.2847085885794369</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7338598691663988</v>
+        <v>0.9074404399500053</v>
       </c>
       <c r="C30" t="n">
-        <v>1.75930071091403</v>
+        <v>1.74598110892468</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.7900364115713183</v>
+        <v>-0.6933178513577442</v>
       </c>
       <c r="E30" t="n">
-        <v>-45.26575204469702</v>
+        <v>-39.72418674387729</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.418461586218809e-09</v>
+        <v>-4.155787074705711e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.01585892479136e-07</v>
+        <v>-8.410844508196449e-08</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.857021310188593e-08</v>
+        <v>-5.553454219514032e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2463092046043045</v>
+        <v>0.294876752457274</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7600691501999867</v>
+        <v>0.9398490270821898</v>
       </c>
       <c r="C31" t="n">
-        <v>1.732847164867251</v>
+        <v>1.719051862804151</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.7900364116050123</v>
+        <v>-0.6933178513930796</v>
       </c>
       <c r="E31" t="n">
-        <v>-45.26575204662753</v>
+        <v>-39.72418674590186</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.32459700802366e-09</v>
+        <v>-3.940006044865526e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.051959920050177e-07</v>
+        <v>-8.652957702418799e-08</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.786325950595814e-08</v>
+        <v>-4.921777309508985e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2548026254527288</v>
+        <v>0.305044916335111</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7862784312326833</v>
+        <v>0.9722576142134225</v>
       </c>
       <c r="C32" t="n">
-        <v>1.706393618819588</v>
+        <v>1.692122616682478</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7900364116399036</v>
+        <v>-0.6933178514294321</v>
       </c>
       <c r="E32" t="n">
-        <v>-45.26575204862666</v>
+        <v>-39.72418674798471</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.220152763464395e-09</v>
+        <v>-3.699628538368941e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.087604135524084e-07</v>
+        <v>-8.882499647573751e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.706713938347532e-08</v>
+        <v>-4.206489667309785e-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2632960463011531</v>
+        <v>0.315213080212948</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8124877122644567</v>
+        <v>1.004666201343676</v>
       </c>
       <c r="C33" t="n">
-        <v>1.679940072771011</v>
+        <v>1.665193370559626</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.7900364116759772</v>
+        <v>-0.6933178514667491</v>
       </c>
       <c r="E33" t="n">
-        <v>-45.26575205069352</v>
+        <v>-39.72418675012281</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.103426622888585e-09</v>
+        <v>-3.430640512735776e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.122740086640083e-07</v>
+        <v>-9.098037370454824e-08</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.616524807247445e-08</v>
+        <v>-3.391161705939952e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2717894671495774</v>
+        <v>0.3253812440907851</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8386969932952761</v>
+        <v>1.037074788472925</v>
       </c>
       <c r="C34" t="n">
-        <v>1.653486526721489</v>
+        <v>1.638264124435565</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.790036411713216</v>
+        <v>-0.6933178515049716</v>
       </c>
       <c r="E34" t="n">
-        <v>-45.26575205282715</v>
+        <v>-39.7241867523128</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.972321103993488e-09</v>
+        <v>-3.128082477304636e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.157308005145534e-07</v>
+        <v>-9.297904042600405e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.513657870671513e-08</v>
+        <v>-2.454807307007107e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2802828879980017</v>
+        <v>0.3355494079686221</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8649062743251104</v>
+        <v>1.069483375601145</v>
       </c>
       <c r="C35" t="n">
-        <v>1.627032980670991</v>
+        <v>1.611334878310265</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.7900364117516014</v>
+        <v>-0.6933178515440337</v>
       </c>
       <c r="E35" t="n">
-        <v>-45.26575205502647</v>
+        <v>-39.7241867545509</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.824222313418145e-09</v>
+        <v>-2.7857551917622e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.191237915662452e-07</v>
+        <v>-9.480143899156295e-08</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.395417951729186e-08</v>
+        <v>-1.370218637047483e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.288776308846426</v>
+        <v>0.3457175718464591</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8911155553539291</v>
+        <v>1.101891962728313</v>
       </c>
       <c r="C36" t="n">
-        <v>1.600579434619486</v>
+        <v>1.5844056321837</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7900364117911124</v>
+        <v>-0.6933178515838615</v>
       </c>
       <c r="E36" t="n">
-        <v>-45.26575205729029</v>
+        <v>-39.72418675683286</v>
       </c>
       <c r="F36" t="n">
-        <v>-6.655831260951005e-09</v>
+        <v>-2.395808016915205e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.224447122640099e-07</v>
+        <v>-9.642440011944221e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.2582919937783e-08</v>
+        <v>-1.015250497381393e-09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2972697296948503</v>
+        <v>0.3558857357242962</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9173248363817027</v>
+        <v>1.134300549854408</v>
       </c>
       <c r="C37" t="n">
-        <v>1.574125888566946</v>
+        <v>1.557476386055843</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.7900364118317247</v>
+        <v>-0.6933178516243711</v>
       </c>
       <c r="E37" t="n">
-        <v>-45.2657520596172</v>
+        <v>-39.72418675915389</v>
       </c>
       <c r="F37" t="n">
-        <v>-6.462924378280188e-09</v>
+        <v>-1.948151453562658e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.256836876420118e-07</v>
+        <v>-9.782018080139622e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.097617862281995e-08</v>
+        <v>1.399474876566548e-08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3057631505432746</v>
+        <v>0.3660538996021332</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9435341174084019</v>
+        <v>1.166709136979412</v>
       </c>
       <c r="C38" t="n">
-        <v>1.547672342513342</v>
+        <v>1.530547139926673</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7900364118734113</v>
+        <v>-0.6933178516654671</v>
       </c>
       <c r="E38" t="n">
-        <v>-45.26575206200567</v>
+        <v>-39.72418676150852</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.240005976008166e-09</v>
+        <v>-1.429599564443176e-09</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.28828787389721e-07</v>
+        <v>-9.895515995882672e-08</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.907079981775993e-08</v>
+        <v>3.198981554699204e-08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3142565713916989</v>
+        <v>0.3762220634799702</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9697433984339984</v>
+        <v>1.19911772410331</v>
       </c>
       <c r="C39" t="n">
-        <v>1.521218796458645</v>
+        <v>1.503617893796172</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7900364119161412</v>
+        <v>-0.69331785170704</v>
       </c>
       <c r="E39" t="n">
-        <v>-45.26575206445391</v>
+        <v>-39.72418676389047</v>
       </c>
       <c r="F39" t="n">
-        <v>-5.979791130053453e-09</v>
+        <v>-8.225853660691261e-10</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.318654067906999e-07</v>
+        <v>-9.978803448002855e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.677917346715139e-08</v>
+        <v>5.390204602005119e-08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3227499922401232</v>
+        <v>0.3863902273578073</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9959526794584644</v>
+        <v>1.231526311226088</v>
       </c>
       <c r="C40" t="n">
-        <v>1.494765250402828</v>
+        <v>1.476688647664324</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7900364119598781</v>
+        <v>-0.6933178517489627</v>
       </c>
       <c r="E40" t="n">
-        <v>-45.26575206695985</v>
+        <v>-39.72418676629246</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.672413933937616e-09</v>
+        <v>-1.031823783545226e-10</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.347753960147686e-07</v>
+        <v>-1.002672668538708e-07</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.397634953744489e-08</v>
+        <v>-6.1147700617124e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.3312434130885475</v>
+        <v>0.3965583912356443</v>
       </c>
       <c r="B41" t="n">
-        <v>1.022161960481774</v>
+        <v>1.263934898347737</v>
       </c>
       <c r="C41" t="n">
-        <v>1.468311704345865</v>
+        <v>1.449759401531117</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.7900364120045802</v>
+        <v>-0.6933178517910867</v>
       </c>
       <c r="E41" t="n">
-        <v>-45.26575206952109</v>
+        <v>-39.72418676870599</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.304174433345869e-09</v>
+        <v>-6.459674786475725e-09</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.375358041164241e-07</v>
+        <v>-1.003273801723879e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.047818354651637e-08</v>
+        <v>1.217413675390161</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3397368339369717</v>
+        <v>0.4067265551134813</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0483712415039</v>
+        <v>1.296343485468252</v>
       </c>
       <c r="C42" t="n">
-        <v>1.44185815828773</v>
+        <v>1.422830155396544</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.790036412050198</v>
+        <v>-0.693317851833236</v>
       </c>
       <c r="E42" t="n">
-        <v>-45.2657520721348</v>
+        <v>-39.72418677112097</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.855476933240538e-09</v>
+        <v>0.01269467838837485</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.401170132452264e-07</v>
+        <v>-1.040907406816653e-07</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.600239602514396e-08</v>
+        <v>3.759454245667022</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.348230254785396</v>
+        <v>0.4168947189913184</v>
       </c>
       <c r="B43" t="n">
-        <v>1.07458052252482</v>
+        <v>1.328752072587632</v>
       </c>
       <c r="C43" t="n">
-        <v>1.415404612228399</v>
+        <v>1.395900909260606</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.7900364120966719</v>
+        <v>-0.6933178518769665</v>
       </c>
       <c r="E43" t="n">
-        <v>-45.26575207479755</v>
+        <v>-39.72418677362654</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.297277523952837e-09</v>
+        <v>0.04946860899861218</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.424798695601022e-07</v>
+        <v>0.007395725096327284</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.009492597201325e-08</v>
+        <v>6.301494996559026</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3567236756338203</v>
+        <v>0.4270628828691554</v>
       </c>
       <c r="B44" t="n">
-        <v>1.10078980354451</v>
+        <v>1.361160659705834</v>
       </c>
       <c r="C44" t="n">
-        <v>1.388951066167851</v>
+        <v>1.36897166312325</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7900364121439294</v>
+        <v>-0.6933147448017056</v>
       </c>
       <c r="E44" t="n">
-        <v>-45.26575207750521</v>
+        <v>-39.72400875132747</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.584610880456156e-09</v>
+        <v>0.1057161803304439</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.445710853783317e-07</v>
+        <v>0.03621578426463409</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.980009894819583e-09</v>
+        <v>8.843535803075785</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3652170964822447</v>
+        <v>0.4372310467469924</v>
       </c>
       <c r="B45" t="n">
-        <v>1.126999084562951</v>
+        <v>1.393569330495074</v>
       </c>
       <c r="C45" t="n">
-        <v>1.362497520106064</v>
+        <v>1.342042517681944</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7900364121918807</v>
+        <v>-0.6932995299065825</v>
       </c>
       <c r="E45" t="n">
-        <v>-45.26575208025262</v>
+        <v>-39.72313700205117</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.643949826285121e-09</v>
+        <v>0.1777126942989971</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.463154912254213e-07</v>
+        <v>0.09780527776052481</v>
       </c>
       <c r="H45" t="n">
-        <v>9.777561985329676e-09</v>
+        <v>11.38557663225262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.373710517330669</v>
+        <v>0.4473992106248295</v>
       </c>
       <c r="B46" t="n">
-        <v>1.153208365580122</v>
+        <v>1.425978411004687</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33604397404302</v>
+        <v>1.315113865338281</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7900364122404104</v>
+        <v>-0.6932584401353387</v>
       </c>
       <c r="E46" t="n">
-        <v>-45.26575208303317</v>
+        <v>-39.72078273157774</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.346103866334122e-09</v>
+        <v>0.2624458707739216</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.476021365808039e-07</v>
+        <v>0.201339427362346</v>
       </c>
       <c r="H46" t="n">
-        <v>-6.111041197690126e-08</v>
+        <v>13.92761746843107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3822039381790933</v>
+        <v>0.4575673745026665</v>
       </c>
       <c r="B47" t="n">
-        <v>1.17941764659601</v>
+        <v>1.458388597979104</v>
       </c>
       <c r="C47" t="n">
-        <v>1.309590427978704</v>
+        <v>1.288186544699056</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.7900364122893671</v>
+        <v>-0.6931738535238647</v>
       </c>
       <c r="E47" t="n">
-        <v>-45.26575208583817</v>
+        <v>-39.71593627573698</v>
       </c>
       <c r="F47" t="n">
-        <v>-4.237518224213366e-09</v>
+        <v>0.3574795844775004</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.482572020470545e-07</v>
+        <v>0.3542385219051988</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9184882111537369</v>
+        <v>16.46965829966098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3906973590275175</v>
+        <v>0.4677355383805035</v>
       </c>
       <c r="B48" t="n">
-        <v>1.205626927610603</v>
+        <v>1.490801062528383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.283136881913105</v>
+        <v>1.261261965624052</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.7900364123385408</v>
+        <v>-0.6930250297436904</v>
       </c>
       <c r="E48" t="n">
-        <v>-45.26575208865562</v>
+        <v>-39.7074093012418</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04936774696733452</v>
+        <v>0.4608436646123596</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.503193367722438e-07</v>
+        <v>0.5625035809933232</v>
       </c>
       <c r="H48" t="n">
-        <v>3.041843266149427</v>
+        <v>19.01169911087175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3991907798759418</v>
+        <v>0.4779037022583406</v>
       </c>
       <c r="B49" t="n">
-        <v>1.231836208623895</v>
+        <v>1.52321753373634</v>
       </c>
       <c r="C49" t="n">
-        <v>1.256683335846218</v>
+        <v>1.234342210592698</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7900364123883986</v>
+        <v>-0.6927887044230775</v>
       </c>
       <c r="E49" t="n">
-        <v>-45.26575209151227</v>
+        <v>-39.69386885777861</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1984429607509569</v>
+        <v>0.5709447723039919</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02402403026738855</v>
+        <v>0.8309878167606995</v>
       </c>
       <c r="H49" t="n">
-        <v>5.16519837541591</v>
+        <v>21.55373987100928</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4076842007243661</v>
+        <v>0.4880718661361776</v>
       </c>
       <c r="B50" t="n">
-        <v>1.258045489635869</v>
+        <v>1.555640365858752</v>
       </c>
       <c r="C50" t="n">
-        <v>1.230229789778023</v>
+        <v>1.207430117145954</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7900284441244564</v>
+        <v>-0.6924395672265828</v>
       </c>
       <c r="E50" t="n">
-        <v>-45.26529554361833</v>
+        <v>-39.67386476994844</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4181005658418788</v>
+        <v>0.6864943242681529</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1205937507450164</v>
+        <v>1.163616173464607</v>
       </c>
       <c r="H50" t="n">
-        <v>7.288553486455544</v>
+        <v>24.09578046321517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4161776215727904</v>
+        <v>0.4982400300140146</v>
       </c>
       <c r="B51" t="n">
-        <v>1.284254981435847</v>
+        <v>1.588072592017711</v>
       </c>
       <c r="C51" t="n">
-        <v>1.203776452553137</v>
+        <v>1.180529345355939</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7899884456650936</v>
+        <v>-0.6919506442194387</v>
       </c>
       <c r="E51" t="n">
-        <v>-45.26300380070982</v>
+        <v>-39.64585154513223</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6877230746363225</v>
+        <v>0.8064502016992975</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3240570261471605</v>
+        <v>1.563562875921311</v>
       </c>
       <c r="H51" t="n">
-        <v>9.411908564982276</v>
+        <v>24.99999962489057</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4246710424212147</v>
+        <v>0.5084081938918517</v>
       </c>
       <c r="B52" t="n">
-        <v>1.310465531307593</v>
+        <v>1.620517966705993</v>
       </c>
       <c r="C52" t="n">
-        <v>1.177324163688705</v>
+        <v>1.153644433642091</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.7898809616471963</v>
+        <v>-0.6912936006226127</v>
       </c>
       <c r="E52" t="n">
-        <v>-45.2568454201192</v>
+        <v>-39.608205720078</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9927154742456878</v>
+        <v>0.9128910914110051</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6587286357236443</v>
+        <v>2.033395017955439</v>
       </c>
       <c r="H52" t="n">
-        <v>11.53526350665208</v>
+        <v>24.99999972764957</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.433164463269639</v>
+        <v>0.5185763577696887</v>
       </c>
       <c r="B53" t="n">
-        <v>1.336678924226221</v>
+        <v>1.65298099894866</v>
       </c>
       <c r="C53" t="n">
-        <v>1.150874692192278</v>
+        <v>1.126780845755586</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.7896624656433762</v>
+        <v>-0.6904389764923796</v>
       </c>
       <c r="E53" t="n">
-        <v>-45.24432652125983</v>
+        <v>-39.55923936434561</v>
       </c>
       <c r="F53" t="n">
-        <v>1.322746026194048</v>
+        <v>0.998973167657787</v>
       </c>
       <c r="G53" t="n">
-        <v>1.14182088298171</v>
+        <v>2.565238864007861</v>
       </c>
       <c r="H53" t="n">
-        <v>10.36281179333658</v>
+        <v>24.99999980264238</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4416578841180633</v>
+        <v>0.5287445216475257</v>
       </c>
       <c r="B54" t="n">
-        <v>1.362898095622907</v>
+        <v>1.685466977603752</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12443094884876</v>
+        <v>1.099945011366746</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.7892836976271946</v>
+        <v>-0.6893605534926601</v>
       </c>
       <c r="E54" t="n">
-        <v>-45.22262471251808</v>
+        <v>-39.49745027793185</v>
       </c>
       <c r="F54" t="n">
-        <v>1.4933549041729</v>
+        <v>1.068590434687625</v>
       </c>
       <c r="G54" t="n">
-        <v>1.78551826347365</v>
+        <v>3.147233514398293</v>
       </c>
       <c r="H54" t="n">
-        <v>8.239457068341968</v>
+        <v>24.99999985976959</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4501513049664876</v>
+        <v>0.5389126855253628</v>
       </c>
       <c r="B55" t="n">
-        <v>1.389127281182792</v>
+        <v>1.717981877743723</v>
       </c>
       <c r="C55" t="n">
-        <v>1.097997138385419</v>
+        <v>1.073144226202649</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.7886912871433802</v>
+        <v>-0.6880370134685125</v>
       </c>
       <c r="E55" t="n">
-        <v>-45.18868209205621</v>
+        <v>-39.42161702053155</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50000000705163</v>
+        <v>1.124892095577498</v>
       </c>
       <c r="G55" t="n">
-        <v>2.512240265222354</v>
+        <v>3.769786688578874</v>
       </c>
       <c r="H55" t="n">
-        <v>8.151938394539041</v>
+        <v>24.99999990472485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4586447258149119</v>
+        <v>0.5490808494031998</v>
       </c>
       <c r="B56" t="n">
-        <v>1.415372121805637</v>
+        <v>1.750532221306065</v>
       </c>
       <c r="C56" t="n">
-        <v>1.071578871004152</v>
+        <v>1.046386499271949</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.7878574957004498</v>
+        <v>-0.686450969914752</v>
       </c>
       <c r="E56" t="n">
-        <v>-45.14090936138218</v>
+        <v>-39.33074341877713</v>
       </c>
       <c r="F56" t="n">
-        <v>1.50000000617991</v>
+        <v>1.17042500936878</v>
       </c>
       <c r="G56" t="n">
-        <v>3.242196021018643</v>
+        <v>4.425140809278197</v>
       </c>
       <c r="H56" t="n">
-        <v>8.151938436141409</v>
+        <v>24.99999994101456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4671381466633362</v>
+        <v>0.5592490132810368</v>
       </c>
       <c r="B57" t="n">
-        <v>1.441638980628396</v>
+        <v>1.783124962830183</v>
       </c>
       <c r="C57" t="n">
-        <v>1.045182495526979</v>
+        <v>1.019680432237164</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.7867809784726494</v>
+        <v>-0.6845881845013434</v>
       </c>
       <c r="E57" t="n">
-        <v>-45.07922946765609</v>
+        <v>-39.22401367645029</v>
       </c>
       <c r="F57" t="n">
-        <v>1.500000007798907</v>
+        <v>1.207248900627339</v>
       </c>
       <c r="G57" t="n">
-        <v>3.97215177639072</v>
+        <v>5.107022081157513</v>
       </c>
       <c r="H57" t="n">
-        <v>8.15193843594343</v>
+        <v>24.99999997091599</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4756315675117605</v>
+        <v>0.5694171771588739</v>
       </c>
       <c r="B58" t="n">
-        <v>1.46793424037843</v>
+        <v>1.815767395449759</v>
       </c>
       <c r="C58" t="n">
-        <v>1.018814412065625</v>
+        <v>0.9930351247853674</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.7854613848395402</v>
+        <v>-0.682436933774114</v>
       </c>
       <c r="E58" t="n">
-        <v>-45.0036223218066</v>
+        <v>-39.10075608910559</v>
       </c>
       <c r="F58" t="n">
-        <v>1.500000008934346</v>
+        <v>1.237029533026583</v>
       </c>
       <c r="G58" t="n">
-        <v>4.702107532550662</v>
+        <v>5.810356689735841</v>
       </c>
       <c r="H58" t="n">
-        <v>8.151938436622054</v>
+        <v>24.99999999597223</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4841249883601847</v>
+        <v>0.5795853410367109</v>
       </c>
       <c r="B59" t="n">
-        <v>1.494264272379094</v>
+        <v>1.84846707322956</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9924810506092768</v>
+        <v>0.9664601009919336</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.783898284319496</v>
+        <v>-0.6799874975115566</v>
       </c>
       <c r="E59" t="n">
-        <v>-44.91406325905336</v>
+        <v>-38.96041372907477</v>
       </c>
       <c r="F59" t="n">
-        <v>1.500000009774592</v>
+        <v>1.261114061742119</v>
       </c>
       <c r="G59" t="n">
-        <v>5.432063289263151</v>
+        <v>6.531041282580755</v>
       </c>
       <c r="H59" t="n">
-        <v>8.151938437589969</v>
+        <v>25.00000001726584</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4926184092086091</v>
+        <v>0.5897535049145479</v>
       </c>
       <c r="B60" t="n">
-        <v>1.520635433888126</v>
+        <v>1.881231746676527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9661888777928058</v>
+        <v>0.9399652526164854</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7820911660069662</v>
+        <v>-0.6772317454768418</v>
       </c>
       <c r="E60" t="n">
-        <v>-44.8105230066646</v>
+        <v>-38.80252076810102</v>
       </c>
       <c r="F60" t="n">
-        <v>1.500000010421422</v>
+        <v>1.280591973291908</v>
       </c>
       <c r="G60" t="n">
-        <v>6.162019046384533</v>
+        <v>7.265757350267463</v>
       </c>
       <c r="H60" t="n">
-        <v>8.151938438619624</v>
+        <v>25.00000003557858</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5011118300570333</v>
+        <v>0.599921668792385</v>
       </c>
       <c r="B61" t="n">
-        <v>1.547054065378441</v>
+        <v>1.914069308853243</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9399444036901377</v>
+        <v>0.9135607960453924</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.7800394379020692</v>
+        <v>-0.674162803641986</v>
       </c>
       <c r="E61" t="n">
-        <v>-44.69296764554563</v>
+        <v>-38.62668335339264</v>
       </c>
       <c r="F61" t="n">
-        <v>1.500000010934653</v>
+        <v>1.296344369491836</v>
       </c>
       <c r="G61" t="n">
-        <v>6.891974803820688</v>
+        <v>8.011821110454594</v>
       </c>
       <c r="H61" t="n">
-        <v>8.151938439620146</v>
+        <v>25.0000000514889</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5096052509054576</v>
+        <v>0.610089832670222</v>
       </c>
       <c r="B62" t="n">
-        <v>1.573526487750331</v>
+        <v>1.946987750005562</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9137541886373568</v>
+        <v>0.8872572402282477</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.7777424261311662</v>
+        <v>-0.6707747845267233</v>
       </c>
       <c r="E62" t="n">
-        <v>-44.56135856558101</v>
+        <v>-38.43256415717845</v>
       </c>
       <c r="F62" t="n">
-        <v>1.500000011351743</v>
+        <v>1.309083824932357</v>
       </c>
       <c r="G62" t="n">
-        <v>7.6219305615066</v>
+        <v>8.767062104441392</v>
       </c>
       <c r="H62" t="n">
-        <v>8.151938440556895</v>
+        <v>25.00000006543385</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5180986717538819</v>
+        <v>0.620257996548059</v>
       </c>
       <c r="B63" t="n">
-        <v>1.600058999463876</v>
+        <v>1.979995119007461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8876248500900976</v>
+        <v>0.8610653634704264</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.7751993740562143</v>
+        <v>-0.6670625692136697</v>
       </c>
       <c r="E63" t="n">
-        <v>-44.41565241460428</v>
+        <v>-38.21986988709664</v>
       </c>
       <c r="F63" t="n">
-        <v>1.500000011697349</v>
+        <v>1.319386620966577</v>
       </c>
       <c r="G63" t="n">
-        <v>8.351886319395483</v>
+        <v>9.529725014406827</v>
       </c>
       <c r="H63" t="n">
-        <v>8.151938441419398</v>
+        <v>25.00000007774965</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5265920926023062</v>
+        <v>0.6304261604258961</v>
       </c>
       <c r="B64" t="n">
-        <v>1.626657873580068</v>
+        <v>2.013099490242559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8615630695197372</v>
+        <v>0.8349961973607635</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.7724094412703804</v>
+        <v>-0.6630216309820232</v>
       </c>
       <c r="E64" t="n">
-        <v>-44.25580104085082</v>
+        <v>-37.98834118115023</v>
       </c>
       <c r="F64" t="n">
-        <v>1.500000011988359</v>
+        <v>1.32771881434456</v>
       </c>
       <c r="G64" t="n">
-        <v>9.081842077452551</v>
+        <v>10.29839025994053</v>
       </c>
       <c r="H64" t="n">
-        <v>8.15193844220771</v>
+        <v>25.00000008869891</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5350855134507305</v>
+        <v>0.6405943243037331</v>
       </c>
       <c r="B65" t="n">
-        <v>1.653329354698911</v>
+        <v>2.04630893479768</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8355755993528691</v>
+        <v>0.8090610164501795</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.769371702477057</v>
+        <v>-0.6586478924371828</v>
       </c>
       <c r="E65" t="n">
-        <v>-44.08175142873023</v>
+        <v>-37.73774442183718</v>
       </c>
       <c r="F65" t="n">
-        <v>1.500000012236735</v>
+        <v>1.334457319733173</v>
       </c>
       <c r="G65" t="n">
-        <v>9.811797835651234</v>
+        <v>11.07190978197435</v>
       </c>
       <c r="H65" t="n">
-        <v>8.151938442926289</v>
+        <v>25.00000009848961</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5435789342991548</v>
+        <v>0.6507624881815701</v>
       </c>
       <c r="B66" t="n">
-        <v>1.680079655782396</v>
+        <v>2.079631495050556</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8096692699584996</v>
+        <v>0.7832713325684844</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.7660851462490739</v>
+        <v>-0.6539376095823007</v>
       </c>
       <c r="E66" t="n">
-        <v>-43.89344562773436</v>
+        <v>-37.46786509393961</v>
       </c>
       <c r="F66" t="n">
-        <v>1.500000012451182</v>
+        <v>1.339906959809176</v>
       </c>
       <c r="G66" t="n">
-        <v>10.54175359397079</v>
+        <v>11.84935510923975</v>
       </c>
       <c r="H66" t="n">
-        <v>8.151938443581175</v>
+        <v>25.0000001072883</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.5520723551475791</v>
+        <v>0.6609306520594072</v>
       </c>
       <c r="B67" t="n">
-        <v>1.706914954849905</v>
+        <v>2.113075161900842</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7838509966873446</v>
+        <v>0.7576388928849221</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.7625486736645273</v>
+        <v>-0.6488872775465276</v>
       </c>
       <c r="E67" t="n">
-        <v>-43.69082067427612</v>
+        <v>-37.1785023831501</v>
       </c>
       <c r="F67" t="n">
-        <v>1.500000012638188</v>
+        <v>1.344314254202684</v>
       </c>
       <c r="G67" t="n">
-        <v>11.2717093523947</v>
+        <v>12.629975357988</v>
       </c>
       <c r="H67" t="n">
-        <v>8.151938444178718</v>
+        <v>25.00000011522969</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5605657759960034</v>
+        <v>0.6710988159372442</v>
       </c>
       <c r="B68" t="n">
-        <v>1.733841391533181</v>
+        <v>2.146647854028389</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7581277869675568</v>
+        <v>0.732175680993385</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.758761096815266</v>
+        <v>-0.643493553709112</v>
       </c>
       <c r="E68" t="n">
-        <v>-43.47380850623199</v>
+        <v>-36.86946477140708</v>
       </c>
       <c r="F68" t="n">
-        <v>1.500000012802685</v>
+        <v>1.347878571046929</v>
       </c>
       <c r="G68" t="n">
-        <v>12.00166511090961</v>
+        <v>13.41316326505057</v>
       </c>
       <c r="H68" t="n">
-        <v>8.151938444724991</v>
+        <v>25.00000012242364</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5690591968444277</v>
+        <v>0.6812669798150812</v>
       </c>
       <c r="B69" t="n">
-        <v>1.760865063477556</v>
+        <v>2.180357398671458</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7325067474611379</v>
+        <v>0.7068939204439026</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7547211371836674</v>
+        <v>-0.6377531947845148</v>
       </c>
       <c r="E69" t="n">
-        <v>-43.24233586993817</v>
+        <v>-36.5405664321374</v>
       </c>
       <c r="F69" t="n">
-        <v>1.500000012948493</v>
+        <v>1.350761145585251</v>
       </c>
       <c r="G69" t="n">
-        <v>12.73162086950458</v>
+        <v>14.19842771771297</v>
       </c>
       <c r="H69" t="n">
-        <v>8.151938445225541</v>
+        <v>25.00000012896027</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.577552617692852</v>
+        <v>0.6914351436929183</v>
       </c>
       <c r="B70" t="n">
-        <v>1.787992022575618</v>
+        <v>2.214211513505076</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7069950912852103</v>
+        <v>0.6818060802547492</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.7504274238829057</v>
+        <v>-0.6316630050990835</v>
       </c>
       <c r="E70" t="n">
-        <v>-42.99632421936533</v>
+        <v>-36.19162426672808</v>
       </c>
       <c r="F70" t="n">
-        <v>1.500000013078614</v>
+        <v>1.353092373800586</v>
       </c>
       <c r="G70" t="n">
-        <v>13.4615766281705</v>
+        <v>14.98537153776477</v>
       </c>
       <c r="H70" t="n">
-        <v>8.151938445685346</v>
+        <v>25.0000001349138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5860460385412763</v>
+        <v>0.7016033075707553</v>
       </c>
       <c r="B71" t="n">
-        <v>1.815228271018978</v>
+        <v>2.248217789270175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6816001453022348</v>
+        <v>0.6569248820297358</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.7458784917554675</v>
+        <v>-0.6252197938253968</v>
       </c>
       <c r="E71" t="n">
-        <v>-42.73568960717166</v>
+        <v>-35.82245545423473</v>
       </c>
       <c r="F71" t="n">
-        <v>1.500000013195441</v>
+        <v>1.35497771100168</v>
       </c>
       <c r="G71" t="n">
-        <v>14.19153238689974</v>
+        <v>15.77367351476622</v>
       </c>
       <c r="H71" t="n">
-        <v>8.151938446108799</v>
+        <v>25.00000014034548</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5945394593897005</v>
+        <v>0.7117714714485923</v>
       </c>
       <c r="B72" t="n">
-        <v>1.842579757153179</v>
+        <v>2.282383672860596</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6563293574831496</v>
+        <v>0.6322633083773874</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7410727793241814</v>
+        <v>-0.6184203393712556</v>
       </c>
       <c r="E72" t="n">
-        <v>-42.46034256730541</v>
+        <v>-35.43287541102101</v>
       </c>
       <c r="F72" t="n">
-        <v>1.500000013300901</v>
+        <v>1.35650244219421</v>
       </c>
       <c r="G72" t="n">
-        <v>14.92148814568584</v>
+        <v>16.56307387578912</v>
       </c>
       <c r="H72" t="n">
-        <v>8.15193844649977</v>
+        <v>25.00000014530574</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.6030328802381248</v>
+        <v>0.7219396353264294</v>
       </c>
       <c r="B73" t="n">
-        <v>1.870052371120169</v>
+        <v>2.316716450620304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6311903043472926</v>
+        <v>0.607834612386261</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.7360086265895271</v>
+        <v>-0.6112613594667438</v>
       </c>
       <c r="E73" t="n">
-        <v>-42.17018798880009</v>
+        <v>-35.02269607687351</v>
       </c>
       <c r="F73" t="n">
-        <v>1.500000013396571</v>
+        <v>1.357735540029059</v>
       </c>
       <c r="G73" t="n">
-        <v>15.65144390452325</v>
+        <v>17.353362534342</v>
       </c>
       <c r="H73" t="n">
-        <v>8.151938446861651</v>
+        <v>25.00000014983581</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6115263010865492</v>
+        <v>0.7321077992042664</v>
       </c>
       <c r="B74" t="n">
-        <v>1.897651940272023</v>
+        <v>2.351223231639152</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6061906984828259</v>
+        <v>0.5836523279565041</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.7306842726664381</v>
+        <v>-0.6037394857712719</v>
       </c>
       <c r="E74" t="n">
-        <v>-41.86512498037316</v>
+        <v>-34.5917244600925</v>
       </c>
       <c r="F74" t="n">
-        <v>1.500000013483745</v>
+        <v>1.358732784845722</v>
       </c>
       <c r="G74" t="n">
-        <v>16.38139966340723</v>
+        <v>18.14436958690837</v>
       </c>
       <c r="H74" t="n">
-        <v>8.151938447197416</v>
+        <v>25.0000001539689</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6200197219349735</v>
+        <v>0.7422759630821034</v>
       </c>
       <c r="B75" t="n">
-        <v>1.925384224338892</v>
+        <v>2.385910930864116</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5813383961512271</v>
+        <v>0.5597302808241456</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.7250978532532339</v>
+        <v>-0.5958512420462715</v>
       </c>
       <c r="E75" t="n">
-        <v>-41.54504672540661</v>
+        <v>-34.13976138687942</v>
       </c>
       <c r="F75" t="n">
-        <v>1.500000013563502</v>
+        <v>1.359539287948956</v>
       </c>
       <c r="G75" t="n">
-        <v>17.11135542233362</v>
+        <v>18.93595762720015</v>
       </c>
       <c r="H75" t="n">
-        <v>8.15193844750967</v>
+        <v>25.00000015773099</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6285131427833978</v>
+        <v>0.7524441269599405</v>
       </c>
       <c r="B76" t="n">
-        <v>1.953254910333268</v>
+        <v>2.42078625186543</v>
       </c>
       <c r="C76" t="n">
-        <v>0.556641404979233</v>
+        <v>0.5360826001433748</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.7192473979246998</v>
+        <v>-0.5875930251189042</v>
       </c>
       <c r="E76" t="n">
-        <v>-41.20984032685178</v>
+        <v>-33.66660041063778</v>
       </c>
       <c r="F76" t="n">
-        <v>1.500000013636746</v>
+        <v>1.360191532261506</v>
       </c>
       <c r="G76" t="n">
-        <v>17.84131118129882</v>
+        <v>19.72801553045403</v>
       </c>
       <c r="H76" t="n">
-        <v>8.15193844780071</v>
+        <v>25.00000016114133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6370065636318221</v>
+        <v>0.7626122908377775</v>
       </c>
       <c r="B77" t="n">
-        <v>1.981269607171834</v>
+        <v>2.45585566911456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5321078917414215</v>
+        <v>0.5127237305146709</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.713130827240662</v>
+        <v>-0.5789610880063867</v>
       </c>
       <c r="E77" t="n">
-        <v>-40.85938664156297</v>
+        <v>-33.17202684506818</v>
       </c>
       <c r="F77" t="n">
-        <v>1.500000013704237</v>
+        <v>1.360719022663765</v>
       </c>
       <c r="G77" t="n">
-        <v>18.57126694029967</v>
+        <v>20.52045342659754</v>
       </c>
       <c r="H77" t="n">
-        <v>8.151938448072546</v>
+        <v>25.00000016421252</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6454999844802464</v>
+        <v>0.7727804547156145</v>
       </c>
       <c r="B78" t="n">
-        <v>2.009433839995153</v>
+        <v>2.491125409644446</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5077461902363836</v>
+        <v>0.4896684443642261</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.7067459496606929</v>
+        <v>-0.5699515246861805</v>
       </c>
       <c r="E78" t="n">
-        <v>-40.49356010352304</v>
+        <v>-32.65581689156449</v>
       </c>
       <c r="F78" t="n">
-        <v>1.500000013766625</v>
+        <v>1.361145620675049</v>
       </c>
       <c r="G78" t="n">
-        <v>19.30122269933337</v>
+        <v>21.31319863489136</v>
       </c>
       <c r="H78" t="n">
-        <v>8.151938448326963</v>
+        <v>25.00000016695035</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6539934053286707</v>
+        <v>0.7829486185934516</v>
       </c>
       <c r="B79" t="n">
-        <v>2.037753044164445</v>
+        <v>2.526601433972541</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4835648092591818</v>
+        <v>0.4669318545936212</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.7000904582548145</v>
+        <v>-0.5605602560899278</v>
       </c>
       <c r="E79" t="n">
-        <v>-40.11222853538062</v>
+        <v>-32.11773683672546</v>
       </c>
       <c r="F79" t="n">
-        <v>1.500000013824464</v>
+        <v>1.361490623852071</v>
       </c>
       <c r="G79" t="n">
-        <v>20.03117845839742</v>
+        <v>22.1061923761473</v>
       </c>
       <c r="H79" t="n">
-        <v>8.151938448565526</v>
+        <v>25.00000016935305</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.662486826177095</v>
+        <v>0.7931167824712886</v>
       </c>
       <c r="B80" t="n">
-        <v>2.066232558913598</v>
+        <v>2.562289416174563</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4595724406724946</v>
+        <v>0.4445294274288565</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.6931619271992379</v>
+        <v>-0.5507830169730575</v>
       </c>
       <c r="E80" t="n">
-        <v>-39.71525294767076</v>
+        <v>-31.55754230003858</v>
       </c>
       <c r="F80" t="n">
-        <v>1.50000001387823</v>
+        <v>1.361769638732231</v>
       </c>
       <c r="G80" t="n">
-        <v>20.76113421748962</v>
+        <v>22.89938711379623</v>
       </c>
       <c r="H80" t="n">
-        <v>8.151938448789643</v>
+        <v>25.00000017141002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6709802470255193</v>
+        <v>0.8032849463491256</v>
       </c>
       <c r="B81" t="n">
-        <v>2.094877620633318</v>
+        <v>2.598194723001934</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4357779675785157</v>
+        <v>0.4224769954052294</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6859578080452861</v>
+        <v>-0.5406153433710289</v>
       </c>
       <c r="E81" t="n">
-        <v>-39.30248732503996</v>
+        <v>-30.97497751517576</v>
       </c>
       <c r="F81" t="n">
-        <v>1.500000013928337</v>
+        <v>1.361995286810118</v>
       </c>
       <c r="G81" t="n">
-        <v>21.49108997660798</v>
+        <v>23.69274440352653</v>
       </c>
       <c r="H81" t="n">
-        <v>8.15193844900055</v>
+        <v>25.0000001730997</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6794736678739435</v>
+        <v>0.8134531102269627</v>
       </c>
       <c r="B82" t="n">
-        <v>2.123693355763088</v>
+        <v>2.634322391939067</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4121904725932987</v>
+        <v>0.4007907704296081</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.6784754257486811</v>
+        <v>-0.5300525604000678</v>
       </c>
       <c r="E82" t="n">
-        <v>-38.87377839874109</v>
+        <v>-30.36977463102703</v>
       </c>
       <c r="F82" t="n">
-        <v>1.500000013975143</v>
+        <v>1.362177775482768</v>
       </c>
       <c r="G82" t="n">
-        <v>22.22104573575074</v>
+        <v>24.48623315421939</v>
       </c>
       <c r="H82" t="n">
-        <v>8.151938449199355</v>
+        <v>25.00000017438603</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6879670887223678</v>
+        <v>0.8236212741047997</v>
       </c>
       <c r="B83" t="n">
-        <v>2.152684773265169</v>
+        <v>2.670677108098173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3888192462248196</v>
+        <v>0.3794873568647531</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.6707119744453353</v>
+        <v>-0.5190897701973021</v>
       </c>
       <c r="E83" t="n">
-        <v>-38.42896540460404</v>
+        <v>-29.74165302072119</v>
       </c>
       <c r="F83" t="n">
-        <v>1.500000014018963</v>
+        <v>1.362325359790904</v>
       </c>
       <c r="G83" t="n">
-        <v>22.95100149491626</v>
+        <v>25.27982822151282</v>
       </c>
       <c r="H83" t="n">
-        <v>8.151938449387039</v>
+        <v>25.00000017521279</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6964605095707921</v>
+        <v>0.8337894379826367</v>
       </c>
       <c r="B84" t="n">
-        <v>2.181856756653425</v>
+        <v>2.707263179849461</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3656737953555456</v>
+        <v>0.3585837645817517</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.6626645129586528</v>
+        <v>-0.5077218398242311</v>
       </c>
       <c r="E84" t="n">
-        <v>-37.96787982562306</v>
+        <v>-29.09031858854565</v>
       </c>
       <c r="F84" t="n">
-        <v>1.50000001406007</v>
+        <v>1.362444715843448</v>
       </c>
       <c r="G84" t="n">
-        <v>23.68095725410311</v>
+        <v>26.07350927037271</v>
       </c>
       <c r="H84" t="n">
-        <v>8.151938449564495</v>
+        <v>25.00000017549416</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7049539304192164</v>
+        <v>0.8439576018604737</v>
       </c>
       <c r="B85" t="n">
-        <v>2.211214055548118</v>
+        <v>2.744084513083584</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3427638518297674</v>
+        <v>0.338097421926556</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.6543299600221278</v>
+        <v>-0.4959433889799553</v>
       </c>
       <c r="E85" t="n">
-        <v>-37.49034511823181</v>
+        <v>-28.41546306596634</v>
       </c>
       <c r="F85" t="n">
-        <v>1.500000014098708</v>
+        <v>1.362541242817507</v>
       </c>
       <c r="G85" t="n">
-        <v>24.41091301330997</v>
+        <v>26.86725985521849</v>
       </c>
       <c r="H85" t="n">
-        <v>8.151938449732532</v>
+        <v>25.00000017509863</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7134473512676407</v>
+        <v>0.8541257657383108</v>
       </c>
       <c r="B86" t="n">
-        <v>2.240761276726113</v>
+        <v>2.781144584001103</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3200993811453403</v>
+        <v>0.3180461885452201</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.6457050891996866</v>
+        <v>-0.4837487773877092</v>
       </c>
       <c r="E86" t="n">
-        <v>-36.9961764212604</v>
+        <v>-27.71676328892933</v>
       </c>
       <c r="F86" t="n">
-        <v>1.500000014135091</v>
+        <v>1.36261930719503</v>
       </c>
       <c r="G86" t="n">
-        <v>25.14086877253563</v>
+        <v>27.66106667599164</v>
       </c>
       <c r="H86" t="n">
-        <v>8.151938449891844</v>
+        <v>23.94024650527135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.721940772116065</v>
+        <v>0.8642939296161478</v>
       </c>
       <c r="B87" t="n">
-        <v>2.270502874634087</v>
+        <v>2.818446410320812</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2976905912488046</v>
+        <v>0.2984483680097972</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.6367865234847807</v>
+        <v>-0.471132091730922</v>
       </c>
       <c r="E87" t="n">
-        <v>-36.48518024648622</v>
+        <v>-26.99388044935218</v>
       </c>
       <c r="F87" t="n">
-        <v>1.50000001416941</v>
+        <v>1.351631769668923</v>
       </c>
       <c r="G87" t="n">
-        <v>25.87082453177899</v>
+        <v>28.45491897651499</v>
       </c>
       <c r="H87" t="n">
-        <v>8.151938450043094</v>
+        <v>21.39820556390209</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7304341929644893</v>
+        <v>0.8744620934939848</v>
       </c>
       <c r="B88" t="n">
-        <v>2.300443141330307</v>
+        <v>2.855992520794907</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2755479414320849</v>
+        <v>0.2793227201830851</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.6275707295576564</v>
+        <v>-0.4580871320239948</v>
       </c>
       <c r="E88" t="n">
-        <v>-35.9571541495997</v>
+        <v>-26.24645931422704</v>
       </c>
       <c r="F88" t="n">
-        <v>1.500000014201833</v>
+        <v>1.316238458598952</v>
       </c>
       <c r="G88" t="n">
-        <v>26.60078029103905</v>
+        <v>29.24237001595526</v>
       </c>
       <c r="H88" t="n">
-        <v>8.151938450186861</v>
+        <v>18.85616460379504</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7389276138129136</v>
+        <v>0.8846302573718219</v>
       </c>
       <c r="B89" t="n">
-        <v>2.330586195818455</v>
+        <v>2.893784922914457</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2536821513281084</v>
+        <v>0.2606884732554887</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.6180540116785118</v>
+        <v>-0.444610950024692</v>
       </c>
       <c r="E89" t="n">
-        <v>-35.41188638030802</v>
+        <v>-25.47433096171682</v>
       </c>
       <c r="F89" t="n">
-        <v>1.500000014232513</v>
+        <v>1.261107435270085</v>
       </c>
       <c r="G89" t="n">
-        <v>27.3307360503149</v>
+        <v>30.00920116452236</v>
       </c>
       <c r="H89" t="n">
-        <v>8.151938450323687</v>
+        <v>16.31412363753238</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7474210346613379</v>
+        <v>0.8947984212496589</v>
       </c>
       <c r="B90" t="n">
-        <v>2.360935972734628</v>
+        <v>2.931825004296713</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2321042100017168</v>
+        <v>0.2425652002355375</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.6082325051923747</v>
+        <v>-0.4307084127889318</v>
       </c>
       <c r="E90" t="n">
-        <v>-34.849155510192</v>
+        <v>-24.67777425358429</v>
       </c>
       <c r="F90" t="n">
-        <v>1.500000014261585</v>
+        <v>1.190013906912446</v>
       </c>
       <c r="G90" t="n">
-        <v>28.06069180960567</v>
+        <v>30.74391337167368</v>
       </c>
       <c r="H90" t="n">
-        <v>8.151938450454043</v>
+        <v>13.7720826682814</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.7559144555097622</v>
+        <v>0.9049665851274959</v>
       </c>
       <c r="B91" t="n">
-        <v>2.391496210346181</v>
+        <v>2.97011336089601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2108253851311538</v>
+        <v>0.2249725152372352</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5981021696194863</v>
+        <v>-0.4163911507853975</v>
       </c>
       <c r="E91" t="n">
-        <v>-34.26873003681425</v>
+        <v>-23.85745556659875</v>
       </c>
       <c r="F91" t="n">
-        <v>1.500000014289171</v>
+        <v>1.106011001670505</v>
       </c>
       <c r="G91" t="n">
-        <v>28.79064756891059</v>
+        <v>31.43720699570274</v>
       </c>
       <c r="H91" t="n">
-        <v>8.151938450578371</v>
+        <v>11.23004169733512</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7644078763581865</v>
+        <v>0.915134749005333</v>
       </c>
       <c r="B92" t="n">
-        <v>2.422270437818433</v>
+        <v>3.00864966378762</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1898572322741959</v>
+        <v>0.2079297990226632</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5876587813027346</v>
+        <v>-0.401676702274687</v>
       </c>
       <c r="E92" t="n">
-        <v>-33.67036796244815</v>
+        <v>-23.01437976907248</v>
       </c>
       <c r="F92" t="n">
-        <v>1.500000014315382</v>
+        <v>1.011567879738233</v>
       </c>
       <c r="G92" t="n">
-        <v>29.52060332822893</v>
+        <v>32.08156112560836</v>
       </c>
       <c r="H92" t="n">
-        <v>8.151938450697072</v>
+        <v>8.688000725374218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7729012972066107</v>
+        <v>0.92530291288317</v>
       </c>
       <c r="B93" t="n">
-        <v>2.453261961702365</v>
+        <v>3.047432560031714</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1692116042116176</v>
+        <v>0.1914559477593967</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.576897925581226</v>
+        <v>-0.3865878020598745</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.0538163456565</v>
+        <v>-22.14984946926968</v>
       </c>
       <c r="F93" t="n">
-        <v>1.500000014340317</v>
+        <v>0.9086814281650376</v>
       </c>
       <c r="G93" t="n">
-        <v>30.25055908756003</v>
+        <v>32.67089336552706</v>
       </c>
       <c r="H93" t="n">
-        <v>8.151938450810501</v>
+        <v>6.145959752836493</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.781394718055035</v>
+        <v>0.935471076761007</v>
       </c>
       <c r="B94" t="n">
-        <v>2.484473851593373</v>
+        <v>3.086459604279065</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1489006603591457</v>
+        <v>0.1755691408480095</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5658149884563866</v>
+        <v>-0.3711517745644086</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.41881082379435</v>
+        <v>-21.26543024133159</v>
       </c>
       <c r="F94" t="n">
-        <v>1.500000014364065</v>
+        <v>0.7989665919410912</v>
       </c>
       <c r="G94" t="n">
-        <v>30.98051484690327</v>
+        <v>33.20028469176372</v>
       </c>
       <c r="H94" t="n">
-        <v>8.151938458069095</v>
+        <v>3.603918780072436</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7898881389034593</v>
+        <v>0.9456392406388441</v>
       </c>
       <c r="B95" t="n">
-        <v>2.515908924907812</v>
+        <v>3.125727218563298</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1289368762373276</v>
+        <v>0.1602866251863448</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5544051477140353</v>
+        <v>-0.3554000004775404</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.7650751043412</v>
+        <v>-20.36292006631051</v>
       </c>
       <c r="F95" t="n">
-        <v>1.500000014771018</v>
+        <v>0.6837294275716858</v>
       </c>
       <c r="G95" t="n">
-        <v>31.71047060625805</v>
+        <v>33.66575693606897</v>
       </c>
       <c r="H95" t="n">
-        <v>7.133779229855639</v>
+        <v>1.061877807452366</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7983815597518836</v>
+        <v>0.9558074045166811</v>
       </c>
       <c r="B96" t="n">
-        <v>2.547569730720498</v>
+        <v>3.165230678219217</v>
       </c>
       <c r="C96" t="n">
-        <v>0.109333052986797</v>
+        <v>0.1456245144331978</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5426633634626107</v>
+        <v>-0.3393674336241998</v>
       </c>
       <c r="E96" t="n">
-        <v>-31.09232042278139</v>
+        <v>-19.44432165085275</v>
       </c>
       <c r="F96" t="n">
-        <v>1.445275055506325</v>
+        <v>0.5640261837878036</v>
       </c>
       <c r="G96" t="n">
-        <v>32.44042636581089</v>
+        <v>34.06409282940855</v>
       </c>
       <c r="H96" t="n">
-        <v>5.01042401256227</v>
+        <v>-1.480163164477555</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8068749806003079</v>
+        <v>0.9659755683945181</v>
       </c>
       <c r="B97" t="n">
-        <v>2.579458532602492</v>
+        <v>3.20496412213646</v>
       </c>
       <c r="C97" t="n">
-        <v>0.09010232691424308</v>
+        <v>0.1315976027631372</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5305843680440749</v>
+        <v>-0.3230921507447332</v>
       </c>
       <c r="E97" t="n">
-        <v>-30.40024496454144</v>
+        <v>-18.51181663147779</v>
       </c>
       <c r="F97" t="n">
-        <v>1.292407493587785</v>
+        <v>0.4407110819654283</v>
       </c>
       <c r="G97" t="n">
-        <v>33.14375092615492</v>
+        <v>34.39269046573374</v>
       </c>
       <c r="H97" t="n">
-        <v>2.887068793137311</v>
+        <v>-4.022204134537606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8153684014487322</v>
+        <v>0.9761437322723552</v>
       </c>
       <c r="B98" t="n">
-        <v>2.611577290394324</v>
+        <v>3.244920585653515</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07125817905194187</v>
+        <v>0.1182191933010721</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5181752583506452</v>
+        <v>-0.3066149218397901</v>
       </c>
       <c r="E98" t="n">
-        <v>-29.68925535159303</v>
+        <v>-17.56774095715359</v>
       </c>
       <c r="F98" t="n">
-        <v>1.070065299275504</v>
+        <v>0.3144749576491728</v>
       </c>
       <c r="G98" t="n">
-        <v>33.77268444905069</v>
+        <v>34.64944560228363</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7637135731437246</v>
+        <v>-6.564245098256598</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8238618222971565</v>
+        <v>0.9863118961501922</v>
       </c>
       <c r="B99" t="n">
-        <v>2.643927408394941</v>
+        <v>3.285092054362287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05281403699835545</v>
+        <v>0.1055009419155824</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5054664391321811</v>
+        <v>-0.2899787928702208</v>
       </c>
       <c r="E99" t="n">
-        <v>-28.9610936477803</v>
+        <v>-16.61456097976194</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7985423780335632</v>
+        <v>0.1858765111882062</v>
       </c>
       <c r="G99" t="n">
-        <v>34.29341799612536</v>
+        <v>34.83265647216385</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.359641646868034</v>
+        <v>-6.727626185682865</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8323552431455808</v>
+        <v>0.9964800600280292</v>
       </c>
       <c r="B100" t="n">
-        <v>2.676509310887995</v>
+        <v>3.325469536966447</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03478250515328586</v>
+        <v>0.09345271735446273</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.4925061244240768</v>
+        <v>-0.2732286760481819</v>
       </c>
       <c r="E100" t="n">
-        <v>-28.21852231384459</v>
+        <v>-15.65484997950802</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4922046788423606</v>
+        <v>0.08017125711067564</v>
       </c>
       <c r="G100" t="n">
-        <v>34.68201839769376</v>
+        <v>34.94094680332301</v>
       </c>
       <c r="H100" t="n">
-        <v>-3.482996866039109</v>
+        <v>-4.18558521740453</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8408486639940052</v>
+        <v>1.006648223905866</v>
       </c>
       <c r="B101" t="n">
-        <v>2.709322164817397</v>
+        <v>3.366043155152515</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01717474755175171</v>
+        <v>0.0820824788426478</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.4793560911988749</v>
+        <v>-0.2564109458068485</v>
       </c>
       <c r="E101" t="n">
-        <v>-27.46508090958372</v>
+        <v>-14.69126501569009</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1612217814796544</v>
+        <v>0.02119145972040517</v>
       </c>
       <c r="G101" t="n">
-        <v>34.92154348880162</v>
+        <v>34.98765400654338</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.123355220528378</v>
+        <v>-1.64354424267878</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8493420848424295</v>
+        <v>1.016816387783703</v>
       </c>
       <c r="B102" t="n">
-        <v>2.74236371765733</v>
+        <v>3.406802248222998</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.991590516394594e-09</v>
+        <v>0.07139617224981354</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.4660882309276054</v>
+        <v>-0.2395639977867972</v>
       </c>
       <c r="E102" t="n">
-        <v>-26.70488851287068</v>
+        <v>-13.72600599646487</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.32913081151249e-26</v>
+        <v>5.398186268189788e-27</v>
       </c>
       <c r="G102" t="n">
         <v>35</v>
       </c>
       <c r="H102" t="n">
-        <v>1.174210467067792e-15</v>
+        <v>0.8984967341029297</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/C_results/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/C_results/nausicaa_rollin_timeseries.xlsx
@@ -486,16 +486,16 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3533876011087155</v>
+        <v>-0.5824953833978498</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.24761807578205</v>
+        <v>-33.37452705455156</v>
       </c>
       <c r="F2" t="n">
-        <v>3.180100292632282e-15</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.108417110214403e-29</v>
+        <v>-3.109580457508859e-40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -503,522 +503,522 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.06887309202470009</v>
+        <v>0.04899084750364537</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1984789909186686</v>
+        <v>0.1725862640140226</v>
       </c>
       <c r="C3" t="n">
-        <v>2.426786608569672</v>
+        <v>2.386310384199221</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3533876011087155</v>
+        <v>-0.5824953833978498</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.24761807578205</v>
+        <v>-33.37452705455156</v>
       </c>
       <c r="F3" t="n">
-        <v>1.03975306470308e-18</v>
+        <v>-1.853886236141795e-25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.254911300122785e-14</v>
+        <v>-1.704228138430471e-33</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.822124859067823e-08</v>
+        <v>-2.353646874159769e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1377461840494002</v>
+        <v>0.09798169500729074</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3969579818373373</v>
+        <v>0.3451725280280452</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353573217139344</v>
+        <v>2.272620768398441</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3533876011087154</v>
+        <v>-0.5824953833978498</v>
       </c>
       <c r="E4" t="n">
-        <v>-20.24761807578205</v>
+        <v>-33.37452705455156</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.770680207492054e-09</v>
+        <v>-9.056617722904067e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>1.255320663072725e-14</v>
+        <v>4.925721685621824e-22</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.730131027805758e-08</v>
+        <v>-3.537075797554134e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2066192760741002</v>
+        <v>0.1469725425109361</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5954369727560059</v>
+        <v>0.5177587920420679</v>
       </c>
       <c r="C5" t="n">
-        <v>2.280359825709016</v>
+        <v>2.158931152597662</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3533876011087154</v>
+        <v>-0.5824953833978497</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.24761807578205</v>
+        <v>-33.37452705455155</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.762328960017465e-09</v>
+        <v>-8.989233274530135e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.855643496553201e-08</v>
+        <v>-2.542164335276259e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.720900014170013e-08</v>
+        <v>-3.502387478029477e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2754923680988003</v>
+        <v>0.1959633900145815</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7939159636746745</v>
+        <v>0.6903450560560904</v>
       </c>
       <c r="C6" t="n">
-        <v>2.207146434278688</v>
+        <v>2.045241536796882</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3533876012567373</v>
+        <v>-0.5824953834483982</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.24761808426307</v>
+        <v>-33.37452705744776</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.751015866226321e-09</v>
+        <v>-8.890138497498464e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.707992731348826e-08</v>
+        <v>-5.065414066160378e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.708535429532304e-08</v>
+        <v>-3.450789491338028e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3443654601235004</v>
+        <v>0.2449542375182269</v>
       </c>
       <c r="B7" t="n">
-        <v>0.992394954582506</v>
+        <v>0.8629313200643662</v>
       </c>
       <c r="C7" t="n">
-        <v>2.13393304281898</v>
+        <v>1.931551920987378</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3533876015526546</v>
+        <v>-0.5824953835491191</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.24761810121788</v>
+        <v>-33.37452706321865</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.735925918751499e-09</v>
+        <v>-8.742156963774413e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.155587760545921e-07</v>
+        <v>-7.560848202347024e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.692063870224121e-08</v>
+        <v>-3.370950004657494e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4132385521482005</v>
+        <v>0.2939450850218722</v>
       </c>
       <c r="B8" t="n">
-        <v>1.190873945468673</v>
+        <v>1.035517584061191</v>
       </c>
       <c r="C8" t="n">
-        <v>2.060719651300539</v>
+        <v>1.817862305160491</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3533876019962959</v>
+        <v>-0.5824953836994594</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.24761812663666</v>
+        <v>-33.37452707183251</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.715833325645228e-09</v>
+        <v>-8.51044903591456e-09</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.539780783714258e-07</v>
+        <v>-1.001474438377871e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.669947047115265e-08</v>
+        <v>-3.23699623947412e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4821116441729006</v>
+        <v>0.3429359325255176</v>
       </c>
       <c r="B9" t="n">
-        <v>1.389352936322358</v>
+        <v>1.208103848040924</v>
       </c>
       <c r="C9" t="n">
-        <v>1.987506259694045</v>
+        <v>1.704172689307658</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3533876025874327</v>
+        <v>-0.582495383898593</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.24761816050631</v>
+        <v>-33.37452708324203</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.688769832883494e-09</v>
+        <v>-8.113235445122279e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.923180925532251e-07</v>
+        <v>-1.240360087288136e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.639623878090316e-08</v>
+        <v>-2.974180643070676e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5509847361976007</v>
+        <v>0.391926780029163</v>
       </c>
       <c r="B10" t="n">
-        <v>1.587831927132765</v>
+        <v>1.380690111998017</v>
       </c>
       <c r="C10" t="n">
-        <v>1.914292867970223</v>
+        <v>1.590483073420457</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3533876033257605</v>
+        <v>-0.5824953841452267</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.24761820280937</v>
+        <v>-33.3745270973731</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.651422212855883e-09</v>
+        <v>-7.304622063497112e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.305513104714962e-07</v>
+        <v>-1.468096074651355e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.596533930161623e-08</v>
+        <v>-2.230156706816783e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6198578282223007</v>
+        <v>0.4409176275328083</v>
       </c>
       <c r="B11" t="n">
-        <v>1.786310917889116</v>
+        <v>1.553276375927071</v>
       </c>
       <c r="C11" t="n">
-        <v>1.841079476099858</v>
+        <v>1.47679345749069</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3533876042108693</v>
+        <v>-0.5824953844371435</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.24761825352237</v>
+        <v>-33.3745271140987</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.597794861009169e-09</v>
+        <v>-4.85427847843017e-09</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.686371495460501e-07</v>
+        <v>-1.673134536711984e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.531725119335416e-08</v>
+        <v>1.949753791290979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6887309202470009</v>
+        <v>0.4899084750364537</v>
       </c>
       <c r="B12" t="n">
-        <v>1.984789908580666</v>
+        <v>1.725862639822937</v>
       </c>
       <c r="C12" t="n">
-        <v>1.767866084053818</v>
+        <v>1.363103841510543</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3533876052421933</v>
+        <v>-0.5824953847698302</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.24761831261288</v>
+        <v>-33.37452713316024</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.51586418448555e-09</v>
+        <v>0.7502474136425195</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.06511367716671e-07</v>
+        <v>-1.809392618944799e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.424874293763783e-08</v>
+        <v>4.893077378402382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7576040122717009</v>
+        <v>0.5388993225400991</v>
       </c>
       <c r="B13" t="n">
-        <v>2.183268899196708</v>
+        <v>1.898448903680979</v>
       </c>
       <c r="C13" t="n">
-        <v>1.694652691803082</v>
+        <v>1.249414225472978</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3533876064189202</v>
+        <v>-0.5824953851296106</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.24761838003437</v>
+        <v>-33.37452715377415</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.377539665471235e-09</v>
+        <v>1.500000010289458</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.440622761726962e-07</v>
+        <v>2.105920898981103</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.217364957343587e-08</v>
+        <v>5.887276959717616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.826477104296401</v>
+        <v>0.5878901700437444</v>
       </c>
       <c r="B14" t="n">
-        <v>2.381747889726599</v>
+        <v>2.071035167498119</v>
       </c>
       <c r="C14" t="n">
-        <v>1.621439299318789</v>
+        <v>1.13572460937332</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3533876077398086</v>
+        <v>-0.578306076748911</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.2476184557157</v>
+        <v>-33.13449746448127</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.098505720961283e-09</v>
+        <v>1.50000001275109</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.810673370577569e-07</v>
+        <v>6.316374122955148</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.632807311718904e-08</v>
+        <v>5.887276965113485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8953501963211011</v>
+        <v>0.6368810175473898</v>
       </c>
       <c r="B15" t="n">
-        <v>2.580226880159783</v>
+        <v>2.244096196315094</v>
       </c>
       <c r="C15" t="n">
-        <v>1.548225906572329</v>
+        <v>1.022759005882449</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.353387609202763</v>
+        <v>-0.5656954447792922</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.24761853953681</v>
+        <v>-32.41196147562936</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.257111050921869e-09</v>
+        <v>1.500000013571332</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.169712916320004e-07</v>
+        <v>10.52682735383892</v>
       </c>
       <c r="H15" t="n">
-        <v>8.160135053931999</v>
+        <v>5.88727696726643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9642232883458012</v>
+        <v>0.6858718650510353</v>
       </c>
       <c r="B16" t="n">
-        <v>2.778705870485858</v>
+        <v>2.418567994429889</v>
       </c>
       <c r="C16" t="n">
-        <v>1.475012513535502</v>
+        <v>0.9119847357208399</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3533876108035562</v>
+        <v>-0.5445251126856346</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.2476186312555</v>
+        <v>-31.19899079577243</v>
       </c>
       <c r="F16" t="n">
-        <v>1.369432504938827</v>
+        <v>1.50000001398124</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.49554987150682e-07</v>
+        <v>14.73728058702508</v>
       </c>
       <c r="H16" t="n">
-        <v>13.0209156365276</v>
+        <v>5.887276968448739</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.033096380370501</v>
+        <v>0.7348627125546806</v>
       </c>
       <c r="B17" t="n">
-        <v>2.977184860694735</v>
+        <v>2.595345649277633</v>
       </c>
       <c r="C17" t="n">
-        <v>1.401799120180952</v>
+        <v>0.8049286382122038</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3533876125294413</v>
+        <v>-0.5145576370584923</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.24761873014144</v>
+        <v>-29.48198091967602</v>
       </c>
       <c r="F17" t="n">
-        <v>1.500000013380534</v>
+        <v>1.500000014227027</v>
       </c>
       <c r="G17" t="n">
-        <v>5.403968505098952</v>
+        <v>18.94773382136184</v>
       </c>
       <c r="H17" t="n">
-        <v>13.41018318202855</v>
+        <v>5.88727696920018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.101969472395201</v>
+        <v>0.783853560058326</v>
       </c>
       <c r="B18" t="n">
-        <v>3.175663850777254</v>
+        <v>2.775251653342024</v>
       </c>
       <c r="C18" t="n">
-        <v>1.32858572648385</v>
+        <v>0.7032173951324423</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3325795163885786</v>
+        <v>-0.4754455809308937</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.05540264156755</v>
+        <v>-27.24102517548582</v>
       </c>
       <c r="F18" t="n">
-        <v>1.500000014225748</v>
+        <v>1.500000014390762</v>
       </c>
       <c r="G18" t="n">
-        <v>11.32317480044755</v>
+        <v>23.15818705638852</v>
       </c>
       <c r="H18" t="n">
-        <v>13.41018318623614</v>
+        <v>5.887276969720969</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.170842564419901</v>
+        <v>0.8328444075619713</v>
       </c>
       <c r="B19" t="n">
-        <v>3.375623195406803</v>
+        <v>2.958997190743494</v>
       </c>
       <c r="C19" t="n">
-        <v>1.259517853951504</v>
+        <v>0.6086186385217364</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2885338321566066</v>
+        <v>-0.4267147203047844</v>
       </c>
       <c r="E19" t="n">
-        <v>-16.53177082930963</v>
+        <v>-24.44895252956952</v>
       </c>
       <c r="F19" t="n">
-        <v>1.500000014508979</v>
+        <v>1.500000014507612</v>
       </c>
       <c r="G19" t="n">
-        <v>17.24238109913147</v>
+        <v>27.3686402918748</v>
       </c>
       <c r="H19" t="n">
-        <v>13.41018318792952</v>
+        <v>5.887276970103439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.239715656444601</v>
+        <v>0.8818352550656167</v>
       </c>
       <c r="B20" t="n">
-        <v>3.57842976676064</v>
+        <v>3.147132655877436</v>
       </c>
       <c r="C20" t="n">
-        <v>1.199321465882744</v>
+        <v>0.5230827160909686</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2202652481742906</v>
+        <v>-0.3677395764706727</v>
       </c>
       <c r="E20" t="n">
-        <v>-12.62026909378851</v>
+        <v>-21.06992569169794</v>
       </c>
       <c r="F20" t="n">
-        <v>1.500000014651453</v>
+        <v>1.50000001459516</v>
       </c>
       <c r="G20" t="n">
-        <v>23.16158739893306</v>
+        <v>31.57909352768907</v>
       </c>
       <c r="H20" t="n">
-        <v>13.41018318886665</v>
+        <v>5.887276970396274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.308588748469302</v>
+        <v>0.9308261025692621</v>
       </c>
       <c r="B21" t="n">
-        <v>3.784870252305996</v>
+        <v>3.33998261155157</v>
       </c>
       <c r="C21" t="n">
-        <v>1.153099864346008</v>
+        <v>0.4487843859365749</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1261630461613193</v>
+        <v>-0.2977084102017189</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.228610075557776</v>
+        <v>-17.05743543010795</v>
       </c>
       <c r="F21" t="n">
-        <v>1.500000014737437</v>
+        <v>1.50000001466317</v>
       </c>
       <c r="G21" t="n">
-        <v>29.08079369929688</v>
+        <v>35.78954676374908</v>
       </c>
       <c r="H21" t="n">
-        <v>4.472026183254151</v>
+        <v>1.989055301207893</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.377461840494002</v>
+        <v>0.9798169500729075</v>
       </c>
       <c r="B22" t="n">
-        <v>3.994740511685386</v>
+        <v>3.537558803945962</v>
       </c>
       <c r="C22" t="n">
-        <v>1.126480609118799</v>
+        <v>0.3881626450659849</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003829187009265476</v>
+        <v>-0.2155731427332745</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2193962545972338</v>
+        <v>-12.35143125498792</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-2.008874664160104e-24</v>
       </c>
       <c r="G22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>2.568730974896449e-14</v>
+        <v>2.163573273794861e-16</v>
       </c>
     </row>
   </sheetData>
